--- a/source/guides/hrsa/uds-plus/StructureDefinition-de-identified-uds-plus-patient.xlsx
+++ b/source/guides/hrsa/uds-plus/StructureDefinition-de-identified-uds-plus-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2781" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2781" uniqueCount="531">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-20T09:30:38-04:00</t>
+    <t>2025-03-28T22:48:43+11:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -429,7 +429,7 @@
     <t>Patient.extension</t>
   </si>
   <si>
-    <t>4</t>
+    <t>3</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
@@ -502,10 +502,26 @@
 </t>
   </si>
   <si>
-    <t>Indicates the birth sex of the Patient.</t>
-  </si>
-  <si>
-    <t>Indicates the birth sex of the Patient</t>
+    <t>Indicates the Birth sex of the Patient.</t>
+  </si>
+  <si>
+    <t>Indicates the Birth sex of the Patient</t>
+  </si>
+  <si>
+    <t>Patient.extension:uds-plus-sex</t>
+  </si>
+  <si>
+    <t>uds-plus-sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.org/guides/hrsa/uds-plus/StructureDefinition/uds-plus-sex-extension}
+</t>
+  </si>
+  <si>
+    <t>Indicates the sex of the Patient.</t>
+  </si>
+  <si>
+    <t>Indicates the sex of the Patient</t>
   </si>
   <si>
     <t>Patient.extension:uds-plus-age-extension</t>
@@ -522,22 +538,6 @@
   </si>
   <si>
     <t>Indicates the age of the Patient computed based on date of birth at a specific time</t>
-  </si>
-  <si>
-    <t>Patient.extension:uds-plus-gender-identity-extension</t>
-  </si>
-  <si>
-    <t>uds-plus-gender-identity-extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.org/guides/hrsa/uds-plus/StructureDefinition/uds-plus-gender-identity-extension}
-</t>
-  </si>
-  <si>
-    <t>Gender Identity of the pateient</t>
-  </si>
-  <si>
-    <t>Indicates the gender identity of the Patient at a specific time</t>
   </si>
   <si>
     <t>Patient.extension:uds-plus-agriculture-worker-status</t>
@@ -813,7 +813,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-uds-plus-pat-1:All dateTime data elements should be truncated to a year only for de-identified resources. {$this is dateTime implies $this.toString().length() = 4}</t>
+uds-plus-pat-1:All dateTime data elements should be truncated to a year only for de-identified resources. {$this is dateTime implies $this.toString().length() = 4}uds-plus-pat-1a:All dateTime data elements should have valid year &gt; 1900 {$this is dateTime implies $this.toString() &gt;= '1900'}uds-plus-pat-1b:All dateTime data elements should have valid year &lt; 2030 {$this is dateTime implies $this.toString() &lt;= '2030'}</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/deceasedInd, player[classCode=PSN|ANM and determinerCode=INSTANCE]/deceasedTime</t>
@@ -869,10 +869,7 @@
     <t>Patient.address.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Extension cannot be included in Address</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -1084,7 +1081,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-uds-plus-patient-1:De-identified Zipcodes can contain first 3 digits followed by 00 in the last two digits or have to be masked with 00000. {$this.matches('[0-9]{3}00|00000')}</t>
+uds-plus-patient-1:De-identified Zipcodes can contain first 3 digits followed by 00 in the last two digits or have to be masked with 00000. If the extended ZipCode format is used the resulting format should be #####-####. {$this.matches('^[0-9]{3}[0]{2}(-[0-9]{4})?$')}</t>
   </si>
   <si>
     <t>AD.part[parttype = ZIP]</t>
@@ -1111,7 +1108,7 @@
     <t>dataAbsentReason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {data-absent-reason}
+    <t xml:space="preserve">Extension {data-absent-reason|4.0.1}
 </t>
   </si>
   <si>
@@ -1166,17 +1163,16 @@
     <t>Value of extension</t>
   </si>
   <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Used to specify why the normally expected content of the data element is missing.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ext-1
-</t>
   </si>
   <si>
     <t>Patient.address.postalCode.value</t>
@@ -1222,7 +1218,7 @@
 </t>
   </si>
   <si>
-    <t>Time period when address was/is in use</t>
+    <t>Address period cannot be included in the profile</t>
   </si>
   <si>
     <t>Time period when address was/is in use.</t>
@@ -1354,6 +1350,12 @@
   </si>
   <si>
     <t>Patient.contact.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Patient.contact.modifierExtension</t>
@@ -2006,7 +2008,7 @@
   <cols>
     <col min="1" max="1" width="60.8984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="43.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="33.91796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -2014,7 +2016,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="96.6875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.29296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3348,7 +3350,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>88</v>
@@ -3465,7 +3467,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>88</v>
@@ -3582,7 +3584,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>88</v>
@@ -5230,14 +5232,14 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>81</v>
@@ -5255,11 +5257,9 @@
         <v>271</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -5299,7 +5299,7 @@
         <v>137</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>81</v>
@@ -5308,7 +5308,7 @@
         <v>138</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5323,7 +5323,7 @@
         <v>140</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>81</v>
@@ -5340,10 +5340,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5369,16 +5369,16 @@
         <v>108</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
@@ -5391,7 +5391,7 @@
         <v>81</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>81</v>
@@ -5406,28 +5406,28 @@
         <v>231</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="Z29" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="Z29" t="s" s="2">
+      <c r="AA29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5442,16 +5442,16 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>81</v>
@@ -5459,10 +5459,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5488,13 +5488,13 @@
         <v>108</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5508,7 +5508,7 @@
         <v>81</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>81</v>
@@ -5523,28 +5523,28 @@
         <v>231</v>
       </c>
       <c r="Y30" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Z30" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="Z30" t="s" s="2">
+      <c r="AA30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5559,7 +5559,7 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>81</v>
@@ -5568,7 +5568,7 @@
         <v>81</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>81</v>
@@ -5576,10 +5576,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5605,16 +5605,16 @@
         <v>266</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5627,43 +5627,43 @@
         <v>81</v>
       </c>
       <c r="T31" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5678,16 +5678,16 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>81</v>
@@ -5695,10 +5695,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5724,10 +5724,10 @@
         <v>266</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5742,43 +5742,43 @@
         <v>81</v>
       </c>
       <c r="T32" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5793,16 +5793,16 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>81</v>
@@ -5810,14 +5810,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5839,10 +5839,10 @@
         <v>266</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5857,43 +5857,43 @@
         <v>81</v>
       </c>
       <c r="T33" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5908,16 +5908,16 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>81</v>
@@ -5925,14 +5925,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5954,13 +5954,13 @@
         <v>266</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5974,43 +5974,43 @@
         <v>81</v>
       </c>
       <c r="T34" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6025,16 +6025,16 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>81</v>
@@ -6042,14 +6042,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6071,10 +6071,10 @@
         <v>266</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6125,7 +6125,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6140,16 +6140,16 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>81</v>
@@ -6157,14 +6157,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6186,10 +6186,10 @@
         <v>266</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6204,43 +6204,43 @@
         <v>81</v>
       </c>
       <c r="T36" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6252,19 +6252,19 @@
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>81</v>
@@ -6272,10 +6272,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6301,10 +6301,10 @@
         <v>266</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6387,10 +6387,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6468,7 +6468,7 @@
         <v>138</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6500,13 +6500,13 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="C39" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>81</v>
@@ -6528,13 +6528,13 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6585,7 +6585,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6594,13 +6594,13 @@
         <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>81</v>
@@ -6617,10 +6617,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B40" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6643,7 +6643,7 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>90</v>
+        <v>266</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>267</v>
@@ -6709,7 +6709,7 @@
         <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>81</v>
@@ -6732,10 +6732,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B41" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6806,7 +6806,7 @@
         <v>137</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>81</v>
@@ -6815,7 +6815,7 @@
         <v>138</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6847,10 +6847,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B42" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6876,13 +6876,13 @@
         <v>102</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6890,49 +6890,49 @@
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF42" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>88</v>
@@ -6964,10 +6964,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B43" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6993,10 +6993,10 @@
         <v>108</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7025,7 +7025,9 @@
       <c r="X43" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="Y43" s="2"/>
+      <c r="Y43" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="Z43" t="s" s="2">
         <v>369</v>
       </c>
@@ -7054,7 +7056,7 @@
         <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>371</v>
+        <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>100</v>
@@ -7077,10 +7079,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7106,10 +7108,10 @@
         <v>266</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7133,34 +7135,34 @@
         <v>81</v>
       </c>
       <c r="W44" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF44" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7192,10 +7194,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7221,13 +7223,13 @@
         <v>266</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7277,7 +7279,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7292,16 +7294,16 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
@@ -7309,10 +7311,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7335,17 +7337,17 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -7358,43 +7360,43 @@
         <v>81</v>
       </c>
       <c r="T46" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF46" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7409,16 +7411,16 @@
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>81</v>
@@ -7426,10 +7428,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7452,17 +7454,17 @@
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>81</v>
@@ -7487,14 +7489,14 @@
         <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Y47" t="s" s="2">
+      <c r="Z47" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>400</v>
-      </c>
       <c r="AA47" t="s" s="2">
         <v>81</v>
       </c>
@@ -7511,7 +7513,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7526,16 +7528,16 @@
         <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>81</v>
@@ -7543,10 +7545,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7569,19 +7571,19 @@
         <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -7630,7 +7632,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7645,7 +7647,7 @@
         <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>206</v>
@@ -7654,7 +7656,7 @@
         <v>81</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>81</v>
@@ -7662,10 +7664,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7688,19 +7690,19 @@
         <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>81</v>
@@ -7749,7 +7751,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7764,7 +7766,7 @@
         <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>206</v>
@@ -7773,7 +7775,7 @@
         <v>81</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>81</v>
@@ -7781,10 +7783,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7807,19 +7809,19 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>81</v>
@@ -7868,7 +7870,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7880,10 +7882,10 @@
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>206</v>
@@ -7900,10 +7902,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8015,10 +8017,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8044,10 +8046,10 @@
         <v>134</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>271</v>
+        <v>426</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>272</v>
+        <v>427</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>186</v>
@@ -8100,7 +8102,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8132,14 +8134,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8161,10 +8163,10 @@
         <v>134</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>186</v>
@@ -8219,7 +8221,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8251,10 +8253,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8277,17 +8279,17 @@
         <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -8312,13 +8314,13 @@
         <v>81</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>81</v>
@@ -8336,7 +8338,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8351,7 +8353,7 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>206</v>
@@ -8360,7 +8362,7 @@
         <v>81</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>81</v>
@@ -8368,10 +8370,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8397,14 +8399,14 @@
         <v>209</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8453,7 +8455,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8477,7 +8479,7 @@
         <v>81</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>81</v>
@@ -8485,10 +8487,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8514,13 +8516,13 @@
         <v>218</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>222</v>
@@ -8572,7 +8574,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8596,7 +8598,7 @@
         <v>81</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>81</v>
@@ -8604,10 +8606,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8633,14 +8635,14 @@
         <v>257</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>81</v>
@@ -8689,7 +8691,7 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8713,7 +8715,7 @@
         <v>81</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>81</v>
@@ -8721,10 +8723,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8753,11 +8755,11 @@
         <v>227</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>81</v>
@@ -8806,7 +8808,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8830,7 +8832,7 @@
         <v>81</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>81</v>
@@ -8838,10 +8840,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8864,17 +8866,17 @@
         <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>81</v>
@@ -8923,7 +8925,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8932,13 +8934,13 @@
         <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>206</v>
@@ -8947,7 +8949,7 @@
         <v>81</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>81</v>
@@ -8955,10 +8957,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8981,13 +8983,13 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9038,7 +9040,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9053,7 +9055,7 @@
         <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>206</v>
@@ -9070,10 +9072,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9096,19 +9098,19 @@
         <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>81</v>
@@ -9157,7 +9159,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9172,10 +9174,10 @@
         <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>81</v>
@@ -9189,10 +9191,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9304,10 +9306,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9333,10 +9335,10 @@
         <v>134</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>271</v>
+        <v>426</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>272</v>
+        <v>427</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>186</v>
@@ -9389,7 +9391,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9421,14 +9423,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9450,10 +9452,10 @@
         <v>134</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>186</v>
@@ -9508,7 +9510,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9540,10 +9542,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9566,19 +9568,19 @@
         <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>81</v>
@@ -9603,13 +9605,13 @@
         <v>81</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>81</v>
@@ -9627,7 +9629,7 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>88</v>
@@ -9642,16 +9644,16 @@
         <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>81</v>
@@ -9659,10 +9661,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9688,16 +9690,16 @@
         <v>199</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>81</v>
@@ -9746,7 +9748,7 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9761,16 +9763,16 @@
         <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>81</v>
@@ -9778,14 +9780,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9804,16 +9806,16 @@
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9863,7 +9865,7 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9878,7 +9880,7 @@
         <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>206</v>
@@ -9887,7 +9889,7 @@
         <v>81</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>81</v>
@@ -9895,10 +9897,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9921,19 +9923,19 @@
         <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>81</v>
@@ -9982,7 +9984,7 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9997,10 +9999,10 @@
         <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>81</v>
@@ -10014,10 +10016,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10040,19 +10042,19 @@
         <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>81</v>
@@ -10101,7 +10103,7 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10116,7 +10118,7 @@
         <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>206</v>
@@ -10133,10 +10135,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10248,10 +10250,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10277,10 +10279,10 @@
         <v>134</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>271</v>
+        <v>426</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>272</v>
+        <v>427</v>
       </c>
       <c r="N71" t="s" s="2">
         <v>186</v>
@@ -10333,7 +10335,7 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10365,14 +10367,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10394,10 +10396,10 @@
         <v>134</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N72" t="s" s="2">
         <v>186</v>
@@ -10452,7 +10454,7 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10484,10 +10486,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10510,16 +10512,16 @@
         <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10569,7 +10571,7 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>88</v>
@@ -10593,7 +10595,7 @@
         <v>81</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>81</v>
@@ -10601,10 +10603,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10630,10 +10632,10 @@
         <v>108</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10663,10 +10665,10 @@
         <v>231</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>81</v>
@@ -10684,7 +10686,7 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>88</v>
@@ -10699,7 +10701,7 @@
         <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>206</v>
